--- a/src/test/resources/ExcelFiles/TestData.xlsx
+++ b/src/test/resources/ExcelFiles/TestData.xlsx
@@ -386,13 +386,13 @@
     <t xml:space="preserve">PayUBiz: Ensure that  when user enters wrong card details in "Credit Card &amp; Debit Card "details in "Payment" page has to redirect to the "PayUbiz" payment gateway.</t>
   </si>
   <si>
-    <t xml:space="preserve">Order Detail Page</t>
+    <t xml:space="preserve">Order Summary Page</t>
   </si>
   <si>
     <t xml:space="preserve">IGP_TC_082</t>
   </si>
   <si>
-    <t xml:space="preserve">Navigating to 'order details' page: Ensure that the selected product is navigating to particular selected order detailed page.</t>
+    <t xml:space="preserve">Navigating to 'Order Summary' page-: Ensure that the user is able to navigate to particularly selected Order Summary page.</t>
   </si>
   <si>
     <t xml:space="preserve">LOW</t>
@@ -401,43 +401,43 @@
     <t xml:space="preserve">IGP_TC_083</t>
   </si>
   <si>
-    <t xml:space="preserve">In order detailed page validate 'Enter delivery area pin code' field: Ensure that the user able to enter delivery pin code on "order details" page. </t>
+    <t xml:space="preserve">In Order Summary page, validate 'Edit your Contact Details' field-: Ensure that the user able to edit contact details on Order Summary page.</t>
   </si>
   <si>
     <t xml:space="preserve">IGP_TC_084</t>
   </si>
   <si>
-    <t xml:space="preserve">To validate the entered pin code: Ensure that entered pin code is valid.</t>
+    <t xml:space="preserve">To change the Fix Date Delivery field-: Ensure that delivery date can be changed.</t>
   </si>
   <si>
     <t xml:space="preserve">IGP_TC_085</t>
   </si>
   <si>
-    <t xml:space="preserve">To add  quantity for  selected product: Ensure that user can increase the quantity of the product.</t>
+    <t xml:space="preserve">To add  quantity for  selected product-: Ensure that user can increase the quantity of the product.</t>
   </si>
   <si>
     <t xml:space="preserve">IGP_TC_086</t>
   </si>
   <si>
-    <t xml:space="preserve">Add to cart: Ensure that the product is added to cart upon clicking 'Add to cart' button.</t>
+    <t xml:space="preserve">Navigate to Payment page-: Ensure that the user navigates to Payment page</t>
   </si>
   <si>
     <t xml:space="preserve">IGP_TC_087</t>
   </si>
   <si>
-    <t xml:space="preserve">Types of delivery options: Ensure that the selected delivery option should be updated on change.</t>
+    <t xml:space="preserve">Types of delivery options-: Ensure that the selected delivery option should be updated on change.</t>
   </si>
   <si>
     <t xml:space="preserve">IGP_TC_088</t>
   </si>
   <si>
-    <t xml:space="preserve">Product Description: Ensure that the user able to view 'Product Description' upon clicking on 'Read more'.</t>
+    <t xml:space="preserve">Apply Coupon Code-: Ensure that the user able to apply coupon code.</t>
   </si>
   <si>
     <t xml:space="preserve">IGP_TC_089</t>
   </si>
   <si>
-    <t xml:space="preserve">Buy now: Ensure that the cart page should be displayed with the selected products upon clicking on 'Buy Now'.</t>
+    <t xml:space="preserve">Enter Message-: Ensure that the user should be able to enter message.</t>
   </si>
   <si>
     <t xml:space="preserve">URL Tests</t>
@@ -457,7 +457,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -530,6 +530,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -654,7 +660,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -748,6 +754,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -834,20 +844,20 @@
   </sheetPr>
   <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A59" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E65" activeCellId="0" sqref="E65"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C65" activeCellId="0" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="63.7142857142857"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.5969387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27.9438775510204"/>
-    <col collapsed="false" hidden="false" max="252" min="7" style="0" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="253" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="62.9081632653061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.3265306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27.6734693877551"/>
+    <col collapsed="false" hidden="false" max="252" min="7" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="253" style="0" width="11.0714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1800,14 +1810,14 @@
         <v>240</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="13" t="s">
         <v>120</v>
       </c>
       <c r="B57" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="C57" s="24" t="s">
         <v>122</v>
       </c>
       <c r="D57" s="13" t="s">
@@ -1817,14 +1827,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="13" t="s">
         <v>120</v>
       </c>
       <c r="B58" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C58" s="24" t="s">
         <v>125</v>
       </c>
       <c r="D58" s="13" t="s">
@@ -1834,14 +1844,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="13" t="s">
         <v>120</v>
       </c>
       <c r="B59" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="C59" s="24" t="s">
         <v>127</v>
       </c>
       <c r="D59" s="13" t="s">
@@ -1851,14 +1861,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="13" t="s">
         <v>120</v>
       </c>
       <c r="B60" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="C60" s="13" t="s">
+      <c r="C60" s="24" t="s">
         <v>129</v>
       </c>
       <c r="D60" s="13" t="s">
@@ -1868,14 +1878,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="13" t="s">
         <v>120</v>
       </c>
       <c r="B61" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="C61" s="13" t="s">
+      <c r="C61" s="24" t="s">
         <v>131</v>
       </c>
       <c r="D61" s="13" t="s">
@@ -1885,14 +1895,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="13" t="s">
         <v>120</v>
       </c>
       <c r="B62" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="C62" s="13" t="s">
+      <c r="C62" s="24" t="s">
         <v>133</v>
       </c>
       <c r="D62" s="13" t="s">
@@ -1902,14 +1912,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="29.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="13" t="s">
         <v>120</v>
       </c>
       <c r="B63" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="C63" s="13" t="s">
+      <c r="C63" s="24" t="s">
         <v>135</v>
       </c>
       <c r="D63" s="13" t="s">
@@ -1919,14 +1929,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="29.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="13" t="s">
         <v>120</v>
       </c>
       <c r="B64" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C64" s="13" t="s">
+      <c r="C64" s="24" t="s">
         <v>137</v>
       </c>
       <c r="D64" s="13" t="s">
@@ -1937,7 +1947,7 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="24" t="s">
+      <c r="A65" s="25" t="s">
         <v>138</v>
       </c>
       <c r="B65" s="13" t="s">

--- a/src/test/resources/ExcelFiles/TestData.xlsx
+++ b/src/test/resources/ExcelFiles/TestData.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="URL_List" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" name="Excel_BuiltIn__FilterDatabase_1" vbProcedure="false">#REF!</definedName>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="150">
   <si>
     <t xml:space="preserve">Test Data for IGP-Indian gift portal</t>
   </si>
@@ -447,17 +448,45 @@
   </si>
   <si>
     <t xml:space="preserve">Test list of given URLs whether they are working or not.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URL DESCRIPTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REQUIRED STATUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXECUTION FLAG(Y/N)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://igp.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cart Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Payment Page</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="#"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -531,14 +560,8 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -569,8 +592,14 @@
         <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF333333"/>
+        <bgColor rgb="FF333300"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -634,6 +663,43 @@
       <bottom style="dotted"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="dotted">
+        <color rgb="FF333333"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color rgb="FF333333"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF333333"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color rgb="FF333333"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF333333"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="dotted">
+        <color rgb="FF333333"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF333333"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF333333"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -660,7 +726,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -757,12 +823,52 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -844,20 +950,20 @@
   </sheetPr>
   <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C65" activeCellId="0" sqref="C65"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="62.9081632653061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.3265306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27.6734693877551"/>
-    <col collapsed="false" hidden="false" max="252" min="7" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="253" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="59.9387755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.1122448979592"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="26.3214285714286"/>
+    <col collapsed="false" hidden="false" max="252" min="7" style="0" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="253" style="0" width="10.3928571428571"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1817,7 +1923,7 @@
       <c r="B57" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="C57" s="24" t="s">
+      <c r="C57" s="13" t="s">
         <v>122</v>
       </c>
       <c r="D57" s="13" t="s">
@@ -1834,7 +1940,7 @@
       <c r="B58" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="C58" s="24" t="s">
+      <c r="C58" s="13" t="s">
         <v>125</v>
       </c>
       <c r="D58" s="13" t="s">
@@ -1851,7 +1957,7 @@
       <c r="B59" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="C59" s="24" t="s">
+      <c r="C59" s="13" t="s">
         <v>127</v>
       </c>
       <c r="D59" s="13" t="s">
@@ -1868,7 +1974,7 @@
       <c r="B60" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="C60" s="24" t="s">
+      <c r="C60" s="13" t="s">
         <v>129</v>
       </c>
       <c r="D60" s="13" t="s">
@@ -1885,7 +1991,7 @@
       <c r="B61" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="C61" s="24" t="s">
+      <c r="C61" s="13" t="s">
         <v>131</v>
       </c>
       <c r="D61" s="13" t="s">
@@ -1902,7 +2008,7 @@
       <c r="B62" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="C62" s="24" t="s">
+      <c r="C62" s="13" t="s">
         <v>133</v>
       </c>
       <c r="D62" s="13" t="s">
@@ -1919,7 +2025,7 @@
       <c r="B63" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="C63" s="24" t="s">
+      <c r="C63" s="13" t="s">
         <v>135</v>
       </c>
       <c r="D63" s="13" t="s">
@@ -1936,7 +2042,7 @@
       <c r="B64" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C64" s="24" t="s">
+      <c r="C64" s="13" t="s">
         <v>137</v>
       </c>
       <c r="D64" s="13" t="s">
@@ -1947,7 +2053,7 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="25" t="s">
+      <c r="A65" s="24" t="s">
         <v>138</v>
       </c>
       <c r="B65" s="13" t="s">
@@ -1993,4 +2099,229 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.5561224489796"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="25" width="26.3214285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="26" width="19.9795918367347"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="27" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.8010204081633"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="29.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="33" t="n">
+        <v>200</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="33" t="n">
+        <v>404</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="33" t="n">
+        <v>401</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="31"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="34"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="31"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="34"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="31"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="34"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="31"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="34"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="31"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="34"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="31"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="31"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="34"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="31"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="34"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="31"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="34"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="31"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="34"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="31"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="34"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="31"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="34"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="31"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="34"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="31"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="34"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="31"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="34"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="31"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="34"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="31"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="34"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="31"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="34"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="31"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="34"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="31"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="34"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="31"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="34"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="31"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="34"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="31"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="34"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/src/test/resources/ExcelFiles/TestData.xlsx
+++ b/src/test/resources/ExcelFiles/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" tabRatio="987" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="8370" tabRatio="987"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -779,13 +779,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="#"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -811,6 +811,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -845,11 +853,17 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -860,24 +874,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -892,7 +891,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -906,9 +905,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -923,6 +937,14 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
@@ -930,25 +952,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -973,16 +981,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1021,7 +1029,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1033,109 +1167,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1153,25 +1185,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1183,25 +1203,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1385,24 +1393,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1420,11 +1410,29 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1487,152 +1495,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
@@ -1684,13 +1692,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1729,7 +1734,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
@@ -1738,10 +1743,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1">
@@ -1762,7 +1767,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1774,10 +1779,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1795,7 +1800,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
@@ -2185,7 +2190,7 @@
   <sheetPr/>
   <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
       <selection activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
@@ -2193,7 +2198,7 @@
   <cols>
     <col min="1" max="1" width="13.1809523809524"/>
     <col min="2" max="2" width="12.2666666666667"/>
-    <col min="3" max="3" width="59.9047619047619" style="31"/>
+    <col min="3" max="3" width="59.9047619047619" style="30"/>
     <col min="4" max="4" width="13.1809523809524"/>
     <col min="5" max="5" width="20.0857142857143"/>
     <col min="6" max="6" width="26.2666666666667"/>
@@ -2202,1161 +2207,1161 @@
   </cols>
   <sheetData>
     <row r="1" ht="24" customHeight="1" spans="1:6">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="33" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="35" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" ht="7.5" customHeight="1" spans="1:6">
-      <c r="A2" s="37"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="39"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="38"/>
     </row>
     <row r="3" ht="48" spans="1:6">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="42" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" ht="30" spans="1:6">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="46">
+      <c r="D4" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="45">
         <v>60</v>
       </c>
-      <c r="F4" s="47">
+      <c r="F4" s="46">
         <f>COUNTA(B4:B70)</f>
         <v>67</v>
       </c>
     </row>
     <row r="5" ht="30" spans="1:5">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="46">
+      <c r="D5" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="45">
         <v>60</v>
       </c>
     </row>
     <row r="6" ht="30" spans="1:5">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="46">
+      <c r="D6" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="45">
         <v>60</v>
       </c>
     </row>
     <row r="7" ht="30" spans="1:5">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="46">
+      <c r="D7" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="45">
         <v>60</v>
       </c>
     </row>
     <row r="8" ht="30" spans="1:5">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="46">
+      <c r="D8" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="45">
         <v>60</v>
       </c>
     </row>
     <row r="9" ht="30" spans="1:5">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="46">
+      <c r="D9" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="45">
         <v>60</v>
       </c>
     </row>
     <row r="10" ht="30" spans="1:9">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="46">
+      <c r="D10" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="45">
         <v>60</v>
       </c>
-      <c r="I10" s="54"/>
+      <c r="I10" s="53"/>
     </row>
     <row r="11" ht="30" spans="1:5">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="46">
+      <c r="D11" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="45">
         <v>60</v>
       </c>
     </row>
     <row r="12" ht="45" spans="1:5">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="49" t="s">
+      <c r="C12" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="46">
+      <c r="D12" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="45">
         <v>60</v>
       </c>
     </row>
     <row r="13" ht="30" spans="1:5">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="44" t="s">
+      <c r="C13" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="50">
+      <c r="D13" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="49">
         <v>120</v>
       </c>
     </row>
     <row r="14" ht="30" spans="1:5">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="50">
+      <c r="D14" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="49">
         <v>120</v>
       </c>
     </row>
     <row r="15" ht="45" spans="1:5">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="50">
+      <c r="D15" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="49">
         <v>120</v>
       </c>
     </row>
     <row r="16" ht="45" spans="1:5">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="50">
+      <c r="D16" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="49">
         <v>120</v>
       </c>
     </row>
     <row r="17" ht="30" spans="1:5">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="44" t="s">
+      <c r="C17" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="50">
+      <c r="D17" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="49">
         <v>120</v>
       </c>
     </row>
     <row r="18" ht="30" spans="1:5">
-      <c r="A18" s="44" t="s">
+      <c r="A18" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="44" t="s">
+      <c r="C18" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="50">
+      <c r="D18" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="49">
         <v>120</v>
       </c>
     </row>
     <row r="19" ht="30" spans="1:5">
-      <c r="A19" s="44" t="s">
+      <c r="A19" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="44" t="s">
+      <c r="C19" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="50">
+      <c r="D19" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="49">
         <v>120</v>
       </c>
     </row>
     <row r="20" ht="30" spans="1:5">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="44" t="s">
+      <c r="C20" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="50">
+      <c r="D20" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="49">
         <v>120</v>
       </c>
     </row>
     <row r="21" ht="45" spans="1:5">
-      <c r="A21" s="44" t="s">
+      <c r="A21" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="44" t="s">
+      <c r="C21" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="50">
+      <c r="D21" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="49">
         <v>120</v>
       </c>
     </row>
     <row r="22" ht="30" spans="1:5">
-      <c r="A22" s="44" t="s">
+      <c r="A22" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="44" t="s">
+      <c r="C22" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="50">
+      <c r="D22" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="49">
         <v>120</v>
       </c>
     </row>
     <row r="23" ht="30" spans="1:5">
-      <c r="A23" s="44" t="s">
+      <c r="A23" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="44" t="s">
+      <c r="C23" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="50">
+      <c r="D23" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="49">
         <v>120</v>
       </c>
     </row>
     <row r="24" ht="30" spans="1:5">
-      <c r="A24" s="44" t="s">
+      <c r="A24" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="44" t="s">
+      <c r="B24" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="44" t="s">
+      <c r="C24" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="50">
+      <c r="D24" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="49">
         <v>120</v>
       </c>
     </row>
     <row r="25" ht="45" spans="1:5">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="51" t="s">
+      <c r="C25" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="50">
+      <c r="D25" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="49">
         <v>120</v>
       </c>
     </row>
     <row r="26" ht="45" spans="1:5">
-      <c r="A26" s="44" t="s">
+      <c r="A26" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="44" t="s">
+      <c r="B26" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="44" t="s">
+      <c r="C26" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="50">
+      <c r="D26" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="49">
         <v>120</v>
       </c>
     </row>
     <row r="27" ht="45" spans="1:5">
-      <c r="A27" s="44" t="s">
+      <c r="A27" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="44" t="s">
+      <c r="B27" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="44" t="s">
+      <c r="C27" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="50">
+      <c r="D27" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="49">
         <v>120</v>
       </c>
     </row>
     <row r="28" ht="45" spans="1:5">
-      <c r="A28" s="44" t="s">
+      <c r="A28" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="44" t="s">
+      <c r="B28" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="44" t="s">
+      <c r="C28" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="50">
+      <c r="D28" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="49">
         <v>120</v>
       </c>
     </row>
     <row r="29" ht="45" spans="1:5">
-      <c r="A29" s="44" t="s">
+      <c r="A29" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="44" t="s">
+      <c r="B29" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="51" t="s">
+      <c r="C29" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="D29" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="50">
+      <c r="D29" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="49">
         <v>120</v>
       </c>
     </row>
     <row r="30" ht="45" spans="1:5">
-      <c r="A30" s="44" t="s">
+      <c r="A30" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="44" t="s">
+      <c r="B30" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="44" t="s">
+      <c r="C30" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="50">
+      <c r="D30" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="49">
         <v>120</v>
       </c>
     </row>
     <row r="31" ht="30" spans="1:5">
-      <c r="A31" s="44" t="s">
+      <c r="A31" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="44" t="s">
+      <c r="B31" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="51" t="s">
+      <c r="C31" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="D31" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="50">
+      <c r="D31" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="49">
         <v>120</v>
       </c>
     </row>
     <row r="32" ht="30" spans="1:5">
-      <c r="A32" s="44" t="s">
+      <c r="A32" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="44" t="s">
+      <c r="B32" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="44" t="s">
+      <c r="C32" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="D32" s="52" t="s">
+      <c r="D32" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="E32" s="50">
+      <c r="E32" s="49">
         <v>240</v>
       </c>
     </row>
     <row r="33" ht="30" spans="1:5">
-      <c r="A33" s="44" t="s">
+      <c r="A33" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="44" t="s">
+      <c r="B33" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="44" t="s">
+      <c r="C33" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="D33" s="52" t="s">
+      <c r="D33" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="E33" s="50">
+      <c r="E33" s="49">
         <v>240</v>
       </c>
     </row>
     <row r="34" ht="30" spans="1:5">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="44" t="s">
+      <c r="B34" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="44" t="s">
+      <c r="C34" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="D34" s="52" t="s">
+      <c r="D34" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="E34" s="50">
+      <c r="E34" s="49">
         <v>240</v>
       </c>
     </row>
     <row r="35" ht="45" spans="1:5">
-      <c r="A35" s="44" t="s">
+      <c r="A35" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="44" t="s">
+      <c r="B35" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="51" t="s">
+      <c r="C35" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="D35" s="52" t="s">
+      <c r="D35" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="E35" s="50">
+      <c r="E35" s="49">
         <v>240</v>
       </c>
     </row>
     <row r="36" ht="30" spans="1:5">
-      <c r="A36" s="44" t="s">
+      <c r="A36" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="44" t="s">
+      <c r="B36" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="51" t="s">
+      <c r="C36" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="D36" s="52" t="s">
+      <c r="D36" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="E36" s="50">
+      <c r="E36" s="49">
         <v>240</v>
       </c>
     </row>
     <row r="37" ht="30" spans="1:5">
-      <c r="A37" s="44" t="s">
+      <c r="A37" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B37" s="44" t="s">
+      <c r="B37" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="51" t="s">
+      <c r="C37" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="D37" s="52" t="s">
+      <c r="D37" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="E37" s="50">
+      <c r="E37" s="49">
         <v>240</v>
       </c>
     </row>
     <row r="38" ht="30" spans="1:5">
-      <c r="A38" s="44" t="s">
+      <c r="A38" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="44" t="s">
+      <c r="B38" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="51" t="s">
+      <c r="C38" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="D38" s="52" t="s">
+      <c r="D38" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="E38" s="50">
+      <c r="E38" s="49">
         <v>240</v>
       </c>
     </row>
     <row r="39" ht="30" spans="1:5">
-      <c r="A39" s="44" t="s">
+      <c r="A39" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B39" s="44" t="s">
+      <c r="B39" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="51" t="s">
+      <c r="C39" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="D39" s="52" t="s">
+      <c r="D39" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="E39" s="50">
+      <c r="E39" s="49">
         <v>240</v>
       </c>
     </row>
     <row r="40" ht="30" spans="1:5">
-      <c r="A40" s="44" t="s">
+      <c r="A40" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B40" s="44" t="s">
+      <c r="B40" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="C40" s="51" t="s">
+      <c r="C40" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="D40" s="52" t="s">
+      <c r="D40" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="E40" s="50">
+      <c r="E40" s="49">
         <v>240</v>
       </c>
     </row>
     <row r="41" ht="45" spans="1:5">
-      <c r="A41" s="44" t="s">
+      <c r="A41" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B41" s="44" t="s">
+      <c r="B41" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="C41" s="51" t="s">
+      <c r="C41" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="D41" s="52" t="s">
+      <c r="D41" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="E41" s="50">
+      <c r="E41" s="49">
         <v>240</v>
       </c>
     </row>
     <row r="42" ht="45" spans="1:5">
-      <c r="A42" s="44" t="s">
+      <c r="A42" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B42" s="44" t="s">
+      <c r="B42" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="C42" s="51" t="s">
+      <c r="C42" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="D42" s="52" t="s">
+      <c r="D42" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="E42" s="50">
+      <c r="E42" s="49">
         <v>240</v>
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="44" t="s">
+      <c r="A43" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B43" s="44" t="s">
+      <c r="B43" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="C43" s="51" t="s">
+      <c r="C43" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="D43" s="52" t="s">
+      <c r="D43" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="E43" s="50">
+      <c r="E43" s="49">
         <v>240</v>
       </c>
     </row>
     <row r="44" ht="30" spans="1:5">
-      <c r="A44" s="44" t="s">
+      <c r="A44" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B44" s="44" t="s">
+      <c r="B44" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="C44" s="51" t="s">
+      <c r="C44" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="D44" s="52" t="s">
+      <c r="D44" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="E44" s="50">
+      <c r="E44" s="49">
         <v>240</v>
       </c>
     </row>
     <row r="45" ht="30" spans="1:5">
-      <c r="A45" s="44" t="s">
+      <c r="A45" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B45" s="44" t="s">
+      <c r="B45" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="C45" s="51" t="s">
+      <c r="C45" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="D45" s="52" t="s">
+      <c r="D45" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="E45" s="50">
+      <c r="E45" s="49">
         <v>240</v>
       </c>
     </row>
     <row r="46" ht="30" spans="1:5">
-      <c r="A46" s="44" t="s">
+      <c r="A46" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B46" s="44" t="s">
+      <c r="B46" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="C46" s="51" t="s">
+      <c r="C46" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="D46" s="52" t="s">
+      <c r="D46" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="E46" s="50">
+      <c r="E46" s="49">
         <v>240</v>
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="44" t="s">
+      <c r="A47" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B47" s="44" t="s">
+      <c r="B47" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="51" t="s">
+      <c r="C47" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="D47" s="52" t="s">
+      <c r="D47" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="E47" s="50">
+      <c r="E47" s="49">
         <v>240</v>
       </c>
     </row>
     <row r="48" ht="30" spans="1:5">
-      <c r="A48" s="44" t="s">
+      <c r="A48" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B48" s="44" t="s">
+      <c r="B48" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="C48" s="44" t="s">
+      <c r="C48" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="D48" s="52" t="s">
+      <c r="D48" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="E48" s="50">
+      <c r="E48" s="49">
         <v>240</v>
       </c>
     </row>
     <row r="49" ht="45" spans="1:5">
-      <c r="A49" s="44" t="s">
+      <c r="A49" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B49" s="44" t="s">
+      <c r="B49" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="C49" s="44" t="s">
+      <c r="C49" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="D49" s="52" t="s">
+      <c r="D49" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="E49" s="50">
+      <c r="E49" s="49">
         <v>240</v>
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="44" t="s">
+      <c r="A50" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B50" s="44" t="s">
+      <c r="B50" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="C50" s="51" t="s">
+      <c r="C50" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="D50" s="52" t="s">
+      <c r="D50" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="E50" s="50">
+      <c r="E50" s="49">
         <v>240</v>
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="44" t="s">
+      <c r="A51" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B51" s="44" t="s">
+      <c r="B51" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="C51" s="53" t="s">
+      <c r="C51" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="D51" s="52" t="s">
+      <c r="D51" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="E51" s="50">
+      <c r="E51" s="49">
         <v>240</v>
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="44" t="s">
+      <c r="A52" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B52" s="44" t="s">
+      <c r="B52" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="C52" s="53" t="s">
+      <c r="C52" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="D52" s="52" t="s">
+      <c r="D52" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="E52" s="50">
+      <c r="E52" s="49">
         <v>240</v>
       </c>
     </row>
     <row r="53" ht="30" spans="1:5">
-      <c r="A53" s="44" t="s">
+      <c r="A53" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B53" s="44" t="s">
+      <c r="B53" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="C53" s="53" t="s">
+      <c r="C53" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="D53" s="52" t="s">
+      <c r="D53" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="E53" s="50">
+      <c r="E53" s="49">
         <v>240</v>
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="44" t="s">
+      <c r="A54" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B54" s="44" t="s">
+      <c r="B54" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="C54" s="53" t="s">
+      <c r="C54" s="52" t="s">
         <v>115</v>
       </c>
-      <c r="D54" s="52" t="s">
+      <c r="D54" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="E54" s="50">
+      <c r="E54" s="49">
         <v>240</v>
       </c>
     </row>
     <row r="55" ht="30" spans="1:5">
-      <c r="A55" s="44" t="s">
+      <c r="A55" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B55" s="44" t="s">
+      <c r="B55" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="C55" s="44" t="s">
+      <c r="C55" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="D55" s="52" t="s">
+      <c r="D55" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="E55" s="50">
+      <c r="E55" s="49">
         <v>240</v>
       </c>
     </row>
     <row r="56" ht="45" spans="1:5">
-      <c r="A56" s="44" t="s">
+      <c r="A56" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B56" s="44" t="s">
+      <c r="B56" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="C56" s="44" t="s">
+      <c r="C56" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="D56" s="52" t="s">
+      <c r="D56" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="E56" s="50">
+      <c r="E56" s="49">
         <v>240</v>
       </c>
     </row>
     <row r="57" ht="45" spans="1:5">
-      <c r="A57" s="44" t="s">
+      <c r="A57" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="B57" s="44" t="s">
+      <c r="B57" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="C57" s="44" t="s">
+      <c r="C57" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="D57" s="44" t="s">
+      <c r="D57" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="E57" s="44">
+      <c r="E57" s="43">
         <v>40</v>
       </c>
     </row>
     <row r="58" ht="45" spans="1:5">
-      <c r="A58" s="44" t="s">
+      <c r="A58" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="B58" s="44" t="s">
+      <c r="B58" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="C58" s="44" t="s">
+      <c r="C58" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="D58" s="44" t="s">
+      <c r="D58" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="E58" s="44">
+      <c r="E58" s="43">
         <v>40</v>
       </c>
     </row>
     <row r="59" ht="45" spans="1:5">
-      <c r="A59" s="44" t="s">
+      <c r="A59" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="B59" s="44" t="s">
+      <c r="B59" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="C59" s="44" t="s">
+      <c r="C59" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="D59" s="44" t="s">
+      <c r="D59" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="E59" s="44">
+      <c r="E59" s="43">
         <v>40</v>
       </c>
     </row>
     <row r="60" ht="45" spans="1:5">
-      <c r="A60" s="44" t="s">
+      <c r="A60" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="B60" s="44" t="s">
+      <c r="B60" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="C60" s="44" t="s">
+      <c r="C60" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="D60" s="44" t="s">
+      <c r="D60" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="E60" s="44">
+      <c r="E60" s="43">
         <v>40</v>
       </c>
     </row>
     <row r="61" ht="45" spans="1:5">
-      <c r="A61" s="44" t="s">
+      <c r="A61" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="B61" s="44" t="s">
+      <c r="B61" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="C61" s="44" t="s">
+      <c r="C61" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="D61" s="44" t="s">
+      <c r="D61" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="E61" s="44">
+      <c r="E61" s="43">
         <v>40</v>
       </c>
     </row>
     <row r="62" ht="45" spans="1:5">
-      <c r="A62" s="44" t="s">
+      <c r="A62" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="B62" s="44" t="s">
+      <c r="B62" s="43" t="s">
         <v>132</v>
       </c>
-      <c r="C62" s="44" t="s">
+      <c r="C62" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="D62" s="44" t="s">
+      <c r="D62" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="E62" s="44">
+      <c r="E62" s="43">
         <v>40</v>
       </c>
     </row>
     <row r="63" ht="45" spans="1:5">
-      <c r="A63" s="44" t="s">
+      <c r="A63" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="B63" s="44" t="s">
+      <c r="B63" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="C63" s="44" t="s">
+      <c r="C63" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="D63" s="44" t="s">
+      <c r="D63" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="E63" s="44">
+      <c r="E63" s="43">
         <v>40</v>
       </c>
     </row>
     <row r="64" ht="45" spans="1:5">
-      <c r="A64" s="44" t="s">
+      <c r="A64" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="B64" s="44" t="s">
+      <c r="B64" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="C64" s="44" t="s">
+      <c r="C64" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="D64" s="44" t="s">
+      <c r="D64" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="E64" s="44">
+      <c r="E64" s="43">
         <v>40</v>
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="55" t="s">
+      <c r="A65" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="B65" s="44" t="s">
+      <c r="B65" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="C65" s="44" t="s">
+      <c r="C65" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="D65" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="E65" s="44">
+      <c r="D65" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" s="43">
         <v>60</v>
       </c>
     </row>
     <row r="66" ht="45" spans="1:5">
-      <c r="A66" s="44" t="s">
+      <c r="A66" s="43" t="s">
         <v>141</v>
       </c>
       <c r="B66" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="C66" s="44" t="s">
+      <c r="C66" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="D66" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="E66" s="44">
+      <c r="D66" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66" s="43">
         <v>60</v>
       </c>
     </row>
     <row r="67" ht="45" spans="1:5">
-      <c r="A67" s="44" t="s">
+      <c r="A67" s="43" t="s">
         <v>141</v>
       </c>
       <c r="B67" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="C67" s="44" t="s">
+      <c r="C67" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="D67" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="E67" s="44">
+      <c r="D67" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" s="43">
         <v>60</v>
       </c>
     </row>
     <row r="68" ht="45" spans="1:5">
-      <c r="A68" s="44" t="s">
+      <c r="A68" s="43" t="s">
         <v>141</v>
       </c>
       <c r="B68" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="C68" s="44" t="s">
+      <c r="C68" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="D68" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="E68" s="44">
+      <c r="D68" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68" s="43">
         <v>60</v>
       </c>
     </row>
     <row r="69" ht="45" spans="1:5">
-      <c r="A69" s="44" t="s">
+      <c r="A69" s="43" t="s">
         <v>141</v>
       </c>
       <c r="B69" s="15" t="s">
@@ -3365,15 +3370,15 @@
       <c r="C69" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="D69" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="E69" s="44">
+      <c r="D69" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69" s="43">
         <v>60</v>
       </c>
     </row>
     <row r="70" ht="45" spans="1:5">
-      <c r="A70" s="44" t="s">
+      <c r="A70" s="43" t="s">
         <v>141</v>
       </c>
       <c r="B70" s="15" t="s">
@@ -3382,15 +3387,15 @@
       <c r="C70" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="D70" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="E70" s="44">
+      <c r="D70" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E70" s="43">
         <v>60</v>
       </c>
     </row>
     <row r="71" ht="45" spans="1:5">
-      <c r="A71" s="44" t="s">
+      <c r="A71" s="43" t="s">
         <v>141</v>
       </c>
       <c r="B71" s="15" t="s">
@@ -3399,15 +3404,15 @@
       <c r="C71" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="D71" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="E71" s="44">
+      <c r="D71" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E71" s="43">
         <v>60</v>
       </c>
     </row>
     <row r="72" ht="45" spans="1:5">
-      <c r="A72" s="44" t="s">
+      <c r="A72" s="43" t="s">
         <v>141</v>
       </c>
       <c r="B72" s="15" t="s">
@@ -3416,117 +3421,117 @@
       <c r="C72" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="D72" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="E72" s="44">
+      <c r="D72" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E72" s="43">
         <v>60</v>
       </c>
     </row>
     <row r="73" ht="45" spans="1:5">
-      <c r="A73" s="44" t="s">
+      <c r="A73" s="43" t="s">
         <v>141</v>
       </c>
       <c r="B73" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="C73" s="44" t="s">
+      <c r="C73" s="43" t="s">
         <v>157</v>
       </c>
-      <c r="D73" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="E73" s="44">
+      <c r="D73" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E73" s="43">
         <v>60</v>
       </c>
     </row>
     <row r="74" ht="45" spans="1:5">
-      <c r="A74" s="44" t="s">
+      <c r="A74" s="43" t="s">
         <v>141</v>
       </c>
       <c r="B74" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="C74" s="44" t="s">
+      <c r="C74" s="43" t="s">
         <v>159</v>
       </c>
-      <c r="D74" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="E74" s="44">
+      <c r="D74" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E74" s="43">
         <v>60</v>
       </c>
     </row>
     <row r="75" ht="45" spans="1:5">
-      <c r="A75" s="44" t="s">
+      <c r="A75" s="43" t="s">
         <v>141</v>
       </c>
       <c r="B75" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="C75" s="44" t="s">
+      <c r="C75" s="43" t="s">
         <v>161</v>
       </c>
-      <c r="D75" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="E75" s="44">
+      <c r="D75" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75" s="43">
         <v>60</v>
       </c>
     </row>
     <row r="76" ht="45" spans="1:5">
-      <c r="A76" s="44" t="s">
+      <c r="A76" s="43" t="s">
         <v>141</v>
       </c>
       <c r="B76" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="C76" s="44" t="s">
+      <c r="C76" s="43" t="s">
         <v>163</v>
       </c>
-      <c r="D76" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="E76" s="44">
+      <c r="D76" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E76" s="43">
         <v>60</v>
       </c>
     </row>
     <row r="77" ht="45" spans="1:5">
-      <c r="A77" s="44" t="s">
+      <c r="A77" s="43" t="s">
         <v>141</v>
       </c>
       <c r="B77" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="C77" s="44" t="s">
+      <c r="C77" s="43" t="s">
         <v>165</v>
       </c>
-      <c r="D77" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="E77" s="44">
+      <c r="D77" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E77" s="43">
         <v>60</v>
       </c>
     </row>
     <row r="78" ht="45" spans="1:5">
-      <c r="A78" s="44" t="s">
+      <c r="A78" s="43" t="s">
         <v>141</v>
       </c>
       <c r="B78" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="C78" s="44" t="s">
+      <c r="C78" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="D78" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="E78" s="44">
+      <c r="D78" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E78" s="43">
         <v>60</v>
       </c>
     </row>
     <row r="79" ht="45" spans="1:5">
-      <c r="A79" s="44" t="s">
+      <c r="A79" s="43" t="s">
         <v>141</v>
       </c>
       <c r="B79" s="15" t="s">
@@ -3535,15 +3540,15 @@
       <c r="C79" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D79" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="E79" s="44">
+      <c r="D79" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E79" s="43">
         <v>60</v>
       </c>
     </row>
     <row r="80" ht="45" spans="1:5">
-      <c r="A80" s="44" t="s">
+      <c r="A80" s="43" t="s">
         <v>141</v>
       </c>
       <c r="B80" s="15" t="s">
@@ -3552,15 +3557,15 @@
       <c r="C80" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="D80" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="E80" s="44">
+      <c r="D80" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E80" s="43">
         <v>60</v>
       </c>
     </row>
     <row r="81" ht="45" spans="1:5">
-      <c r="A81" s="44" t="s">
+      <c r="A81" s="43" t="s">
         <v>141</v>
       </c>
       <c r="B81" s="15" t="s">
@@ -3569,10 +3574,10 @@
       <c r="C81" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="D81" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="E81" s="44">
+      <c r="D81" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E81" s="43">
         <v>60</v>
       </c>
     </row>
@@ -3586,10 +3591,10 @@
       <c r="C82" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="D82" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="E82" s="44">
+      <c r="D82" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E82" s="43">
         <v>60</v>
       </c>
     </row>
@@ -3603,10 +3608,10 @@
       <c r="C83" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="D83" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="E83" s="44">
+      <c r="D83" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E83" s="43">
         <v>60</v>
       </c>
     </row>
@@ -3617,13 +3622,13 @@
       <c r="B84" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="C84" s="44" t="s">
+      <c r="C84" s="43" t="s">
         <v>180</v>
       </c>
-      <c r="D84" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="E84" s="44">
+      <c r="D84" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E84" s="43">
         <v>60</v>
       </c>
     </row>
@@ -3637,10 +3642,10 @@
       <c r="C85" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="D85" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="E85" s="44">
+      <c r="D85" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E85" s="43">
         <v>60</v>
       </c>
     </row>
@@ -3654,10 +3659,10 @@
       <c r="C86" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="D86" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="E86" s="44">
+      <c r="D86" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E86" s="43">
         <v>60</v>
       </c>
     </row>
@@ -3671,10 +3676,10 @@
       <c r="C87" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="D87" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="E87" s="44">
+      <c r="D87" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E87" s="43">
         <v>60</v>
       </c>
     </row>
@@ -3688,10 +3693,10 @@
       <c r="C88" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="D88" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="E88" s="44">
+      <c r="D88" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E88" s="43">
         <v>60</v>
       </c>
     </row>
@@ -3705,10 +3710,10 @@
       <c r="C89" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="D89" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="E89" s="44">
+      <c r="D89" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E89" s="43">
         <v>60</v>
       </c>
     </row>
@@ -3722,10 +3727,10 @@
       <c r="C90" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="D90" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="E90" s="44">
+      <c r="D90" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E90" s="43">
         <v>60</v>
       </c>
     </row>
@@ -3741,8 +3746,8 @@
   <sheetPr/>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:G5"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -3860,7 +3865,7 @@
       <c r="D5" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="15" t="s">
         <v>215</v>
       </c>
       <c r="F5" s="15" t="s">
@@ -3871,10 +3876,10 @@
       </c>
     </row>
     <row r="6" ht="30" spans="1:7">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>217</v>
       </c>
       <c r="C6" s="11">
@@ -3894,10 +3899,10 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="19" t="s">
         <v>219</v>
       </c>
       <c r="C7" s="11">
@@ -3917,10 +3922,10 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="16" t="s">
         <v>221</v>
       </c>
       <c r="C8" s="11">
@@ -3940,7 +3945,7 @@
       </c>
     </row>
     <row r="9" ht="30" spans="1:7">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="17" t="s">
         <v>223</v>
       </c>
       <c r="B9" s="16" t="s">
@@ -3963,10 +3968,10 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="16" t="s">
         <v>226</v>
       </c>
       <c r="C10" s="11">
@@ -3986,10 +3991,10 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="16" t="s">
         <v>228</v>
       </c>
       <c r="C11" s="11">
@@ -4009,10 +4014,10 @@
       </c>
     </row>
     <row r="12" ht="30" spans="1:7">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="20" t="s">
         <v>231</v>
       </c>
       <c r="C12" s="11">
@@ -4032,10 +4037,10 @@
       </c>
     </row>
     <row r="13" ht="30" spans="1:7">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="19" t="s">
         <v>234</v>
       </c>
       <c r="C13" s="11">
@@ -4055,7 +4060,7 @@
       </c>
     </row>
     <row r="14" ht="30" spans="1:7">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="17" t="s">
         <v>236</v>
       </c>
       <c r="B14" s="10" t="s">
@@ -4078,10 +4083,10 @@
       </c>
     </row>
     <row r="15" ht="30" spans="1:7">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="21" t="s">
         <v>240</v>
       </c>
       <c r="C15" s="11">
@@ -4101,10 +4106,10 @@
       </c>
     </row>
     <row r="16" ht="30" spans="1:7">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="19" t="s">
         <v>243</v>
       </c>
       <c r="C16" s="11">
@@ -4124,91 +4129,91 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="23"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="26"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="25"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="27"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="29"/>
+      <c r="A18" s="26"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="28"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="27"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="29"/>
+      <c r="A19" s="26"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="28"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="27"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="29"/>
+      <c r="A20" s="26"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="28"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="27"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="29"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="28"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="27"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="29"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="28"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="27"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="29"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="28"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="27"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="29"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="28"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="27"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="29"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="28"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="27"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="29"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="28"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="27"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="29"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="28"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="27"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="29"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="28"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="27"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="29"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="28"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="27"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="29"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="28"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="27"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="29"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="28"/>
     </row>
   </sheetData>
   <hyperlinks>
